--- a/Excel/031_ProcV.xlsx
+++ b/Excel/031_ProcV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852A33B8-6317-474A-9A8A-7973938F2E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC024E7-99AB-45FC-B201-6B69E2B52A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="859" firstSheet="5" activeTab="8" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="859" firstSheet="4" activeTab="10" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Exemplo 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="85">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Chave de Pesquisa</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -481,6 +484,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88615E62-E049-49A3-B274-B75AF03E27DF}">
-  <dimension ref="A3:F51"/>
+  <dimension ref="A3:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1143,7 +1150,7 @@
     <col min="2" max="2" width="26.765625" customWidth="1"/>
     <col min="3" max="3" width="34.3046875" customWidth="1"/>
     <col min="5" max="5" width="22.69140625" customWidth="1"/>
-    <col min="6" max="6" width="31.4609375" customWidth="1"/>
+    <col min="6" max="6" width="33.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="35.6" x14ac:dyDescent="0.9">
@@ -1175,7 +1182,7 @@
     <row r="11" spans="1:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
@@ -1193,96 +1200,190 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" t="str">
+        <f>B15&amp;COUNTIF($B$15:B15,B15)</f>
+        <v>Leonardo Almeida1</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="28" t="str">
+        <f>IFERROR(VLOOKUP($E$11&amp;ROW(A1),$A:$C,COLUMN(B1),0),"-")</f>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f>IFERROR(VLOOKUP($E$11&amp;ROW(A1),$A:$C,COLUMN(C1),0),"-")</f>
+        <v>Camisa Masculina</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" t="str">
+        <f>B16&amp;COUNTIF($B$15:B16,B16)</f>
+        <v>Eliane Moreira1</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E16" s="28" t="str">
+        <f t="shared" ref="E16:E23" si="0">IFERROR(VLOOKUP($E$11&amp;ROW(A2),$A:$C,COLUMN(B2),0),"-")</f>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f t="shared" ref="F16:F23" si="1">IFERROR(VLOOKUP($E$11&amp;ROW(A2),$A:$C,COLUMN(C2),0),"-")</f>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" t="str">
+        <f>B17&amp;COUNTIF($B$15:B17,B17)</f>
+        <v>Nicolas Pereira1</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Sapato Social</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A18" t="str">
+        <f>B18&amp;COUNTIF($B$15:B18,B18)</f>
+        <v>Amanda Martins1</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Bermuda Masculino</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A19" t="str">
+        <f>B19&amp;COUNTIF($B$15:B19,B19)</f>
+        <v>Paulo Santos1</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f>IFERROR(VLOOKUP($E$11&amp;ROW(A5),$A:$C,COLUMN(C5),0),"-")</f>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A20" t="str">
+        <f>B20&amp;COUNTIF($B$15:B20,B20)</f>
+        <v>Aline Rosa1</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Térmica</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A21" t="str">
+        <f>B21&amp;COUNTIF($B$15:B21,B21)</f>
+        <v>Leonardo Almeida2</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A22" t="str">
+        <f>B22&amp;COUNTIF($B$15:B22,B22)</f>
+        <v>Eliane Moreira2</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A23" t="str">
+        <f>B23&amp;COUNTIF($B$15:B23,B23)</f>
+        <v>Nicolas Pereira2</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A24" t="str">
+        <f>B24&amp;COUNTIF($B$15:B24,B24)</f>
+        <v>Amanda Martins2</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>36</v>
       </c>
@@ -1290,15 +1391,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A25" t="str">
+        <f>B25&amp;COUNTIF($B$15:B25,B25)</f>
+        <v>Leonardo Almeida3</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="N25" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A26" t="str">
+        <f>B26&amp;COUNTIF($B$15:B26,B26)</f>
+        <v>Eliane Moreira3</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1418,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A27" t="str">
+        <f>B27&amp;COUNTIF($B$15:B27,B27)</f>
+        <v>Nicolas Pereira3</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
@@ -1314,7 +1430,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A28" t="str">
+        <f>B28&amp;COUNTIF($B$15:B28,B28)</f>
+        <v>Amanda Martins3</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
@@ -1322,7 +1442,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A29" t="str">
+        <f>B29&amp;COUNTIF($B$15:B29,B29)</f>
+        <v>Eliane Moreira4</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
@@ -1330,7 +1454,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A30" t="str">
+        <f>B30&amp;COUNTIF($B$15:B30,B30)</f>
+        <v>Angela Maria1</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
@@ -1338,7 +1466,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A31" t="str">
+        <f>B31&amp;COUNTIF($B$15:B31,B31)</f>
+        <v>Carlos Moreira1</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
@@ -1346,7 +1478,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A32" t="str">
+        <f>B32&amp;COUNTIF($B$15:B32,B32)</f>
+        <v>Eliane Moreira5</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1490,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A33" t="str">
+        <f>B33&amp;COUNTIF($B$15:B33,B33)</f>
+        <v>Nicolas Pereira4</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1502,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A34" t="str">
+        <f>B34&amp;COUNTIF($B$15:B34,B34)</f>
+        <v>Leonardo Almeida4</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1514,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A35" t="str">
+        <f>B35&amp;COUNTIF($B$15:B35,B35)</f>
+        <v>Aline Rosa2</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
@@ -1378,7 +1526,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A36" t="str">
+        <f>B36&amp;COUNTIF($B$15:B36,B36)</f>
+        <v>Leonardo Almeida5</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1538,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A37" t="str">
+        <f>B37&amp;COUNTIF($B$15:B37,B37)</f>
+        <v>Eliane Moreira6</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1550,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A38" t="str">
+        <f>B38&amp;COUNTIF($B$15:B38,B38)</f>
+        <v>Nicolas Pereira5</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1562,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A39" t="str">
+        <f>B39&amp;COUNTIF($B$15:B39,B39)</f>
+        <v>Amanda Martins4</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1574,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A40" t="str">
+        <f>B40&amp;COUNTIF($B$15:B40,B40)</f>
+        <v>Eliane Moreira7</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1586,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A41" t="str">
+        <f>B41&amp;COUNTIF($B$15:B41,B41)</f>
+        <v>Nicolas Pereira6</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
       </c>
@@ -1426,7 +1598,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A42" t="str">
+        <f>B42&amp;COUNTIF($B$15:B42,B42)</f>
+        <v>Amanda Martins5</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1610,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A43" t="str">
+        <f>B43&amp;COUNTIF($B$15:B43,B43)</f>
+        <v>Angela Maria2</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1622,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A44" t="str">
+        <f>B44&amp;COUNTIF($B$15:B44,B44)</f>
+        <v>Angela Maria3</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>51</v>
       </c>
@@ -1450,7 +1634,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A45" t="str">
+        <f>B45&amp;COUNTIF($B$15:B45,B45)</f>
+        <v>Carlos Moreira2</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>52</v>
       </c>
@@ -1458,7 +1646,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A46" t="str">
+        <f>B46&amp;COUNTIF($B$15:B46,B46)</f>
+        <v>Carlos Moreira3</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1658,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A47" t="str">
+        <f>B47&amp;COUNTIF($B$15:B47,B47)</f>
+        <v>Aline Rosa3</v>
+      </c>
       <c r="B47" s="6" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1670,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A48" t="str">
+        <f>B48&amp;COUNTIF($B$15:B48,B48)</f>
+        <v>Aline Rosa4</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
@@ -1482,7 +1682,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A49" t="str">
+        <f>B49&amp;COUNTIF($B$15:B49,B49)</f>
+        <v>Aline Rosa5</v>
+      </c>
       <c r="B49" s="6" t="s">
         <v>40</v>
       </c>
@@ -1490,7 +1694,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A50" t="str">
+        <f>B50&amp;COUNTIF($B$15:B50,B50)</f>
+        <v>Paulo Santos2</v>
+      </c>
       <c r="B50" s="6" t="s">
         <v>38</v>
       </c>
@@ -1498,7 +1706,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A51" t="str">
+        <f>B51&amp;COUNTIF($B$15:B51,B51)</f>
+        <v>Paulo Santos3</v>
+      </c>
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -1528,28 +1740,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4136B0DB-82B9-4745-B1D3-4B73DEE5F9E8}">
   <dimension ref="A4:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39.3046875" customWidth="1"/>
-    <col min="2" max="2" width="31.4609375" customWidth="1"/>
+    <col min="2" max="2" width="33.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.69140625" customWidth="1"/>
-    <col min="5" max="5" width="31.4609375" customWidth="1"/>
+    <col min="5" max="5" width="33.53515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.07421875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1580,8 +1792,14 @@
       <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12" t="str">
+        <f>VLOOKUP($D9,$A$18:$B$24,COLUMN(B1),0)</f>
+        <v>BR5083-Leonardo Almeida</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f>VLOOKUP(VLOOKUP($D9,$A$18:$B$24,COLUMN(B1),0),$A$8:$B$14,2,0)</f>
+        <v>Tênis Feminino</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
@@ -1593,8 +1811,14 @@
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="12" t="str">
+        <f t="shared" ref="E10:E14" si="0">VLOOKUP($D10,$A$18:$B$24,COLUMN(B2),0)</f>
+        <v>BR9054-Eliane Moreira</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f t="shared" ref="F10:F14" si="1">VLOOKUP(VLOOKUP($D10,$A$18:$B$24,COLUMN(B2),0),$A$8:$B$14,2,0)</f>
+        <v>Calça Feminina Jogger</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
@@ -1607,8 +1831,14 @@
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>BR8828-Nicolas Pereira</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Masculina</v>
+      </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
@@ -1621,8 +1851,14 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>BR9117-Amanda Martins</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Bermuda Masculino</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
@@ -1635,8 +1871,14 @@
       <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>BR7712-Paulo Santos</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
@@ -1649,8 +1891,14 @@
       <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>BR8853-Aline Rosa</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Bota Masculina</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
@@ -1687,7 +1935,10 @@
       <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="str">
+        <f>VLOOKUP("*"&amp;$D19,$A$8:$B$14,2,0)</f>
+        <v>Tênis Feminino</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
@@ -1699,7 +1950,10 @@
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="str">
+        <f t="shared" ref="E20:E24" si="2">VLOOKUP("*"&amp;$D20,$A$8:$B$14,2,0)</f>
+        <v>Calça Feminina Jogger</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
@@ -1711,7 +1965,10 @@
       <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Camisa Masculina</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
@@ -1723,7 +1980,10 @@
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Bermuda Masculino</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
@@ -1735,7 +1995,10 @@
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
@@ -1747,7 +2010,10 @@
       <c r="D24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Bota Masculina</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2971,7 +3237,7 @@
   <dimension ref="A3:F51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3573,7 +3839,7 @@
   <dimension ref="A4:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4500,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E2C66A-4A62-45CD-89A6-C8A8265684C9}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4538,7 +4804,7 @@
         <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
@@ -4587,15 +4853,15 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$H$5&amp;F9</f>
-        <v>Eliane Moreira1</v>
+        <v>Paulo Santos1</v>
       </c>
       <c r="H9" s="26" t="str">
-        <f>IFERROR(VLOOKUP($G9,$A:$C,COLUMN(B1),FALSE),"-")</f>
-        <v>Eliane Moreira</v>
+        <f>VLOOKUP($G9,$A:$C,2,0)</f>
+        <v>Paulo Santos</v>
       </c>
       <c r="I9" s="26" t="str">
         <f>IFERROR(VLOOKUP($G9,$A:$C,COLUMN(C1),FALSE),"-")</f>
-        <v>Calça Feminina Jogger</v>
+        <v>Camisa Masculina Festa Balada</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4618,15 +4884,15 @@
       </c>
       <c r="G10" s="17" t="str">
         <f t="shared" ref="G10:G17" si="1">$H$5&amp;F10</f>
-        <v>Eliane Moreira2</v>
+        <v>Paulo Santos2</v>
       </c>
       <c r="H10" s="26" t="str">
-        <f t="shared" ref="H10:H17" si="2">IFERROR(VLOOKUP($G10,$A:$C,COLUMN(B2),FALSE),"-")</f>
-        <v>Eliane Moreira</v>
+        <f>IFERROR(VLOOKUP($G10,$A:$C,COLUMN(B2),FALSE),"-")</f>
+        <v>Paulo Santos</v>
       </c>
       <c r="I10" s="26" t="str">
-        <f t="shared" ref="I10:I17" si="3">IFERROR(VLOOKUP($G10,$A:$C,COLUMN(C2),FALSE),"-")</f>
-        <v>Bolsa de Trabalho</v>
+        <f t="shared" ref="I10:I17" si="2">IFERROR(VLOOKUP($G10,$A:$C,COLUMN(C2),FALSE),"-")</f>
+        <v>Sapato Social</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4649,15 +4915,15 @@
       </c>
       <c r="G11" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira3</v>
+        <v>Paulo Santos3</v>
       </c>
       <c r="H11" s="26" t="str">
+        <f t="shared" ref="H10:H17" si="3">IFERROR(VLOOKUP($G11,$A:$C,COLUMN(B3),FALSE),"-")</f>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="I11" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Eliane Moreira</v>
-      </c>
-      <c r="I11" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>Camisa Térmica</v>
+        <v>Camisa Masculina</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4680,15 +4946,15 @@
       </c>
       <c r="G12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira4</v>
+        <v>Paulo Santos4</v>
       </c>
       <c r="H12" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I12" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Eliane Moreira</v>
-      </c>
-      <c r="I12" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>Colar Pingente</v>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4711,15 +4977,15 @@
       </c>
       <c r="G13" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira5</v>
+        <v>Paulo Santos5</v>
       </c>
       <c r="H13" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I13" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Eliane Moreira</v>
-      </c>
-      <c r="I13" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>Camisa Masculina</v>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4742,15 +5008,15 @@
       </c>
       <c r="G14" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira6</v>
+        <v>Paulo Santos6</v>
       </c>
       <c r="H14" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I14" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Eliane Moreira</v>
-      </c>
-      <c r="I14" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>Bolsa de Trabalho</v>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4773,15 +5039,15 @@
       </c>
       <c r="G15" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira7</v>
+        <v>Paulo Santos7</v>
       </c>
       <c r="H15" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I15" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Eliane Moreira</v>
-      </c>
-      <c r="I15" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>Calça Bailarina</v>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4804,14 +5070,14 @@
       </c>
       <c r="G16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira8</v>
+        <v>Paulo Santos8</v>
       </c>
       <c r="H16" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I16" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="I16" s="26" t="str">
-        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -4835,14 +5101,14 @@
       </c>
       <c r="G17" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Eliane Moreira9</v>
+        <v>Paulo Santos9</v>
       </c>
       <c r="H17" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I17" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="I17" s="26" t="str">
-        <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
@@ -5313,9 +5579,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5516,27 +5785,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5561,9 +5818,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>